--- a/docs/PT1/PT1_05.08.24_output.xlsx
+++ b/docs/PT1/PT1_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,238 +505,281 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731003894.2151742</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731003894.617098</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003894.2151742.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003894.617098.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>128.32</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>128.08</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2399999999999807</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731003902.8311384</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731003903.2545414</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731003902.8311384.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731003903.2545414.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>6431</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>6418.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731003915.2220306</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731003915.5920699</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003915.2220306.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003915.5920699.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>498.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>497.85</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731003937.38322</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731003937.9781592</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003937.38322.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003937.9781592.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1007.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -729,735 +787,870 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731003943.3020313</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731003944.1641502</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003943.3020313.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003944.1641502.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>1008</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731003962.3066707</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731003963.103736</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003962.3066707.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003963.103736.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>124.3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>124.24</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731003963.390372</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731003964.5483372</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003963.390372.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003964.5483372.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>124.42</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>124.54</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731003977.8523397</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731003978.6192415</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003977.8523397.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003978.6192415.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>161.24</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>161.14</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731004001.6647372</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731004002.164263</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004001.6647372.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004002.164263.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1379</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731004003.0270486</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731004003.9025338</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004003.0270486.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004003.9025338.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>1381.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1380.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.6000000000001364</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731004008.629441</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731004008.9545858</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004008.629441.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004008.9545858.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>59.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>59.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731004009.9397824</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731004010.383738</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004009.9397824.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004010.383738.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>59.18</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>59.16</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731004030.497778</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731004030.8508637</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SELG1731004030.497778.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SELG1731004030.8508637.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>56.01</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>55.85</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731004056.7818458</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731004057.711635</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731004056.7818458.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731004057.711635.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>19.884</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>19.919</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.03500000000000014</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731004065.498463</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731004066.0797315</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731004065.498463.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731004066.0797315.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>661.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>660.05</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.350000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731004068.808874</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731004070.2669718</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731004068.808874.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731004070.2669718.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>658.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>661.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-2.799999999999955</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731004078.357606</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731004078.9051137</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731004078.357606.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731004078.9051137.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>155.87</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>155.49</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731004088.5885994</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731004090.0052013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/FEES1731004088.5885994.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/FEES1731004090.0052013.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.000219999999999998</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731004093.9198098</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731004094.4314432</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731004093.9198098.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731004094.4314432.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>95.94</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>95.79000000000001</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1499999999999915</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,6 +1688,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1508,6 +1716,15 @@
       <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1521,6 +1738,15 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1534,6 +1760,15 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1547,6 +1782,15 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1560,6 +1804,15 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.7249999999999659</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1573,6 +1826,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.03500000000000014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1586,6 +1848,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.000219999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1599,6 +1870,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.2399999999999807</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1612,6 +1892,15 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1499999999999915</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1625,6 +1914,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1638,6 +1936,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1651,6 +1958,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1664,6 +1980,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1677,6 +2002,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1690,6 +2024,11 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
